--- a/mbs-perturbation/chain/svm/smote/chain-svm-poly-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7553956834532374</v>
+        <v>0.8808510638297873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5691056910569106</v>
+        <v>0.8903225806451612</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4866930171277997</v>
+        <v>0.9642857142857142</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.9392523364485982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6340057636887608</v>
+        <v>0.9033707865168539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5373988330510069</v>
+        <v>0.9808206286467156</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.508695652173913</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6743515850144092</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7444801512287332</v>
+        <v>0.9553875236294896</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.8869565217391304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9336384439359268</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7095085066162571</v>
+        <v>0.9925141776937618</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="D6" t="n">
-        <v>0.626865671641791</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7531758034026466</v>
+        <v>0.9889792060491492</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9310568897496019</v>
+        <v>0.9458085979779041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4821946169772257</v>
+        <v>0.887939017504235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6341990756137077</v>
+        <v>0.9152669320201582</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6462512622852886</v>
+        <v>0.9763974500609661</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/smote/chain-svm-poly-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8808510638297873</v>
+        <v>0.6020761245674741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8903225806451612</v>
+        <v>0.7145790554414785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9642857142857142</v>
+        <v>0.7358687888990919</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9392523364485982</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8701298701298701</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9033707865168539</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9808206286467156</v>
+        <v>0.9807162534435261</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9572192513368984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9040404040404041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9298701298701298</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9553875236294896</v>
+        <v>0.958626670747883</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9336734693877551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8869565217391304</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9336384439359268</v>
+        <v>0.9289340101522842</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9925141776937618</v>
+        <v>0.9548787366046249</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.994475138121547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9137055837563451</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9889792060491492</v>
+        <v>0.9942829308311543</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9458085979779041</v>
+        <v>0.8974887966827347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.887939017504235</v>
+        <v>0.8958724298825821</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9152669320201582</v>
+        <v>0.8899354382646212</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9763974500609661</v>
+        <v>0.924874676105256</v>
       </c>
     </row>
   </sheetData>
